--- a/hardware/VarioController/vc_board_v011.xlsx
+++ b/hardware/VarioController/vc_board_v011.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="vc_board_v011" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1262,12 +1262,14 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
